--- a/bank statement generator/bank_statements/statement_59.xlsx
+++ b/bank statement generator/bank_statements/statement_59.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 15.03.2024</t>
+          <t>KONTOSTAND AM 13.05.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,146 +759,98 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>17.03.</t>
+          <t>17.05.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>18.03.</t>
+          <t>18.05.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU QRZHVK</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 78428840</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>120,49-</t>
+          <t>84,45-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>21.03.</t>
+          <t>19.05.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>20.05.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Roth</t>
+          <t>BEITRAG Allianz SE K-88204127</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>43,77-</t>
+          <t>56,69-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>20.05.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>23.03.</t>
+          <t>21.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Güstrow</t>
+          <t>KARTENZ./20.05 EDEKA RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>41,76-</t>
+          <t>124,51-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>23.03.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>24.03.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./23.03 LIDL RO</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>45,97-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>26.03.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>27.03.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>RECHNUNG VODAFONE GMBH 88998248</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>41,64-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>27.03.</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>28.03.</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MCDONALDS Bad Kissingen</t>
-        </is>
-      </c>
-      <c r="E11" s="17" t="inlineStr">
-        <is>
-          <t>17,81-</t>
-        </is>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="12" t="n"/>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 01.04.2024</t>
+          <t>KONTOSTAND AM 24.05.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>311,44-</t>
+          <t>265,65-</t>
         </is>
       </c>
     </row>
@@ -906,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 08.04.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 02.06.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
